--- a/data/residual_analysis_results.xlsx
+++ b/data/residual_analysis_results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\카카오톡 받은 파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\DS Projects\mainproject2-diecasting-real-time-monitoring\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="residual_analysis" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -641,7 +641,7 @@
   <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1066,7 +1066,7 @@
         <v>289</v>
       </c>
       <c r="F9">
-        <v>9.7799999999999994</v>
+        <v>-5.14</v>
       </c>
       <c r="G9">
         <v>513.62744118037585</v>
@@ -1078,13 +1078,15 @@
         <v>1.3331382456215921</v>
       </c>
       <c r="J9">
-        <v>9.7799999999999994</v>
+        <v>-5.14</v>
       </c>
       <c r="K9">
-        <v>5.2758629694465586</v>
+        <f>J9+I9*3</f>
+        <v>-1.1405852631352236</v>
       </c>
       <c r="L9">
-        <v>-2.7229665042829949</v>
+        <f>J9-I9*3</f>
+        <v>-9.1394147368647758</v>
       </c>
       <c r="M9">
         <v>69.266498759282982</v>
@@ -1093,10 +1095,10 @@
         <v>-66.713602294119411</v>
       </c>
       <c r="O9">
-        <v>5.2758629694465586</v>
+        <v>-1.1405852631352236</v>
       </c>
       <c r="P9">
-        <v>-2.7229665042829949</v>
+        <v>-9.1394147368647758</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
